--- a/metrics_build/statistics/measurements_analysis.xlsx
+++ b/metrics_build/statistics/measurements_analysis.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\grodriguez\CardiacOCT\metrics_build\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\grodriguez\CardiacOCT\metrics_build\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F1406A-93CB-4430-BD52-6BBFE9BCB474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F0A8AD-809C-4947-8BC5-AB92AD7807DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5B6E0941-A250-4CCF-AC71-47FD64016735}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{5B6E0941-A250-4CCF-AC71-47FD64016735}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lipid measures" sheetId="1" r:id="rId1"/>
-    <sheet name="Calcium measures" sheetId="2" r:id="rId2"/>
+    <sheet name="Lipid measures feb test set" sheetId="3" r:id="rId1"/>
+    <sheet name="Calcium measures feb test set" sheetId="4" r:id="rId2"/>
+    <sheet name="Lipid measures april test set" sheetId="1" r:id="rId3"/>
+    <sheet name="Calcium measures april test set" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="19">
   <si>
     <t>FCT</t>
   </si>
@@ -69,9 +71,6 @@
     <t xml:space="preserve">ICC(2,1) </t>
   </si>
   <si>
-    <t>New test set</t>
-  </si>
-  <si>
     <t>Old test set</t>
   </si>
   <si>
@@ -91,6 +90,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Model 4</t>
+  </si>
+  <si>
+    <t>Model 5</t>
   </si>
 </sst>
 </file>
@@ -450,11 +455,429 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFF5358-E007-4C0F-9EE6-57D037DE35B3}">
+  <dimension ref="B3:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>35.18</v>
+      </c>
+      <c r="I8">
+        <v>7.15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>91.54</v>
+      </c>
+      <c r="N8">
+        <v>33.32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>20.03</v>
+      </c>
+      <c r="I9">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="L9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>63.32</v>
+      </c>
+      <c r="N9">
+        <v>24.91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0.71</v>
+      </c>
+      <c r="D10">
+        <v>0.93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>41.05</v>
+      </c>
+      <c r="I10">
+        <v>-2.38</v>
+      </c>
+      <c r="L10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>94.78</v>
+      </c>
+      <c r="N10">
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536A9804-C566-4A5C-BC89-D98D805776B7}">
+  <dimension ref="B3:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.746</v>
+      </c>
+      <c r="D6">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>-6.64</v>
+      </c>
+      <c r="I6">
+        <v>-7.64</v>
+      </c>
+      <c r="J6">
+        <v>-59.68</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="N6">
+        <v>15.2</v>
+      </c>
+      <c r="O6">
+        <v>200.11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D7">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>7.46</v>
+      </c>
+      <c r="I7">
+        <v>-7.5</v>
+      </c>
+      <c r="J7">
+        <v>-36.5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>30.59</v>
+      </c>
+      <c r="N7">
+        <v>15.5</v>
+      </c>
+      <c r="O7">
+        <v>173.67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="E8">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>14.36</v>
+      </c>
+      <c r="I8">
+        <v>-8.32</v>
+      </c>
+      <c r="J8">
+        <v>-40.92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>55.69</v>
+      </c>
+      <c r="N8">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="O8">
+        <v>164.05</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506D20F9-539F-4B96-91D0-ADA524495717}">
-  <dimension ref="C2:O36"/>
+  <dimension ref="C2:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,355 +886,263 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
-        <v>10</v>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>3</v>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="E5">
+        <v>0.877</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>29.71</v>
+      </c>
+      <c r="J5">
+        <v>5.87</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>72.36</v>
+      </c>
+      <c r="O5">
+        <v>30.32</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E6">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J6">
+        <v>1.17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>74.11</v>
+      </c>
+      <c r="O6">
+        <v>24.64</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>0.81399999999999995</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="E7">
-        <v>0.877</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>38.590000000000003</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="J7">
-        <v>5.87</v>
+        <v>-2.25</v>
       </c>
       <c r="M7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>68.23</v>
+        <v>95.63</v>
       </c>
       <c r="O7">
-        <v>30.32</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>0.85799999999999998</v>
+        <v>0.73</v>
       </c>
       <c r="E8">
-        <v>0.91400000000000003</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I8">
-        <v>27.09</v>
+        <v>28.72</v>
       </c>
       <c r="J8">
-        <v>1.17</v>
+        <v>-2.7</v>
       </c>
       <c r="M8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N8">
-        <v>61.79</v>
+        <v>95.519000000000005</v>
       </c>
       <c r="O8">
-        <v>24.64</v>
+        <v>22.46</v>
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>0.70099999999999996</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="E9">
-        <v>0.93200000000000005</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I9">
-        <v>45.7</v>
+        <v>38.81</v>
       </c>
       <c r="J9">
-        <v>-2.25</v>
+        <v>-0.86</v>
       </c>
       <c r="M9" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N9">
-        <v>93.37</v>
+        <v>107.42</v>
       </c>
       <c r="O9">
-        <v>22.04</v>
+        <v>25.67</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
-        <v>17</v>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="E26">
-        <v>0.86</v>
-      </c>
-      <c r="H26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26">
-        <v>35.18</v>
-      </c>
-      <c r="J26">
-        <v>7.15</v>
-      </c>
-      <c r="M26" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26">
-        <v>91.54</v>
-      </c>
-      <c r="O26">
-        <v>33.32</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="E27">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="H27" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27">
-        <v>20.03</v>
-      </c>
-      <c r="J27">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="M27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27">
-        <v>63.32</v>
-      </c>
-      <c r="O27">
-        <v>24.91</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28">
-        <v>0.71</v>
-      </c>
-      <c r="E28">
-        <v>0.93</v>
-      </c>
-      <c r="H28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28">
-        <v>41.05</v>
-      </c>
-      <c r="J28">
-        <v>-2.38</v>
-      </c>
-      <c r="M28" t="s">
-        <v>6</v>
-      </c>
-      <c r="N28">
-        <v>94.78</v>
-      </c>
-      <c r="O28">
-        <v>22.42</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34">
-        <v>19</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
-      <c r="E35">
-        <v>5</v>
-      </c>
-      <c r="F35">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36">
-        <v>9</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -820,12 +1151,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB1F30A-FD08-40D0-B33D-11652E050167}">
-  <dimension ref="C2:P34"/>
+  <dimension ref="C2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,9 +1165,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
@@ -851,31 +1180,31 @@
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" t="s">
         <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.3">
@@ -990,6 +1319,82 @@
       </c>
       <c r="P7">
         <v>177.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="E8">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="F8">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>11.85</v>
+      </c>
+      <c r="J8">
+        <v>-8.08</v>
+      </c>
+      <c r="K8">
+        <v>-83.04</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8">
+        <v>52.01</v>
+      </c>
+      <c r="O8">
+        <v>13.32</v>
+      </c>
+      <c r="P8">
+        <v>164.6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="F9">
+        <v>0.874</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>14.08</v>
+      </c>
+      <c r="J9">
+        <v>-9.08</v>
+      </c>
+      <c r="K9">
+        <v>-67.349999999999994</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9">
+        <v>57.13</v>
+      </c>
+      <c r="O9">
+        <v>17.63</v>
+      </c>
+      <c r="P9">
+        <v>162.38</v>
       </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
@@ -1000,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
@@ -1045,216 +1450,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="1" t="s">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O23" t="s">
-        <v>16</v>
-      </c>
-      <c r="P23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>0.746</v>
-      </c>
-      <c r="E24">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="F24">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="H24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24">
-        <v>-6.64</v>
-      </c>
-      <c r="J24">
-        <v>-7.64</v>
-      </c>
-      <c r="K24">
-        <v>-59.68</v>
-      </c>
-      <c r="M24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24">
-        <v>69.569999999999993</v>
-      </c>
-      <c r="O24">
-        <v>15.2</v>
-      </c>
-      <c r="P24">
-        <v>200.11</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="E25">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="F25">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="H25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25">
-        <v>7.46</v>
-      </c>
-      <c r="J25">
-        <v>-7.5</v>
-      </c>
-      <c r="K25">
-        <v>-36.5</v>
-      </c>
-      <c r="M25" t="s">
-        <v>5</v>
-      </c>
-      <c r="N25">
-        <v>30.59</v>
-      </c>
-      <c r="O25">
-        <v>15.5</v>
-      </c>
-      <c r="P25">
-        <v>173.67</v>
-      </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="E26">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="F26">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="H26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26">
-        <v>14.36</v>
-      </c>
-      <c r="J26">
-        <v>-8.32</v>
-      </c>
-      <c r="K26">
-        <v>-40.92</v>
-      </c>
-      <c r="M26" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26">
-        <v>55.69</v>
-      </c>
-      <c r="O26">
-        <v>16.059999999999999</v>
-      </c>
-      <c r="P26">
-        <v>164.05</v>
-      </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32">
-        <v>9</v>
-      </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-      <c r="F32">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34">
-        <v>7</v>
-      </c>
-      <c r="E34">
+      <c r="F16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
         <v>2</v>
       </c>
-      <c r="F34">
-        <v>25</v>
+      <c r="F17">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/metrics_build/statistics/measurements_analysis.xlsx
+++ b/metrics_build/statistics/measurements_analysis.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\grodriguez\CardiacOCT\metrics_build\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F0A8AD-809C-4947-8BC5-AB92AD7807DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F391EED-9F2D-4312-AE93-584115387197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{5B6E0941-A250-4CCF-AC71-47FD64016735}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="5" xr2:uid="{5B6E0941-A250-4CCF-AC71-47FD64016735}"/>
   </bookViews>
   <sheets>
     <sheet name="Lipid measures feb test set" sheetId="3" r:id="rId1"/>
     <sheet name="Calcium measures feb test set" sheetId="4" r:id="rId2"/>
     <sheet name="Lipid measures april test set" sheetId="1" r:id="rId3"/>
     <sheet name="Calcium measures april test set" sheetId="2" r:id="rId4"/>
+    <sheet name="Lipid new pullback" sheetId="7" r:id="rId5"/>
+    <sheet name="Calcium new pullback" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="19">
   <si>
     <t>FCT</t>
   </si>
@@ -157,6 +159,5293 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>ICC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lipid new pullback'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FCT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lipid new pullback'!$C$5:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lipid new pullback'!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.78400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B20-48E6-A980-844D58410F36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lipid new pullback'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lipid arc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lipid new pullback'!$C$5:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lipid new pullback'!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86699999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B20-48E6-A980-844D58410F36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="7004223"/>
+        <c:axId val="6997503"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="7004223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6997503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="6997503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7004223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Mean diff</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lipid new pullback'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FCT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lipid new pullback'!$H$5:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lipid new pullback'!$I$5:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>27.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-191C-4038-AAA8-4E64116C9141}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lipid new pullback'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lipid arc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lipid new pullback'!$H$5:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lipid new pullback'!$J$5:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-191C-4038-AAA8-4E64116C9141}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="223595919"/>
+        <c:axId val="223593039"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="223595919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="223593039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="223593039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="223595919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>STD</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lipid new pullback'!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FCT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lipid new pullback'!$M$5:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lipid new pullback'!$N$5:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>73.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E851-47CA-9549-BD925D21E8A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lipid new pullback'!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lipid arc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lipid new pullback'!$M$5:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lipid new pullback'!$O$5:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.059000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E851-47CA-9549-BD925D21E8A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="314263103"/>
+        <c:axId val="314263583"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="314263103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314263583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="314263583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314263103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>ICC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calcium new pullback'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calcium new pullback'!$C$5:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calcium new pullback'!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7C6-490F-8FE2-C076E66D818C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calcium new pullback'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calcium new pullback'!$C$5:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calcium new pullback'!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80900000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A7C6-490F-8FE2-C076E66D818C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calcium new pullback'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thickness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calcium new pullback'!$C$5:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calcium new pullback'!$F$5:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A7C6-490F-8FE2-C076E66D818C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="314249343"/>
+        <c:axId val="314246943"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="314249343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314246943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="314246943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314249343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>STD</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calcium new pullback'!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Depth </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calcium new pullback'!$M$5:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calcium new pullback'!$N$5:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>67.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE7B-4D7A-873B-C0617741827B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calcium new pullback'!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arc </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calcium new pullback'!$M$5:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calcium new pullback'!$O$5:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE7B-4D7A-873B-C0617741827B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calcium new pullback'!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thickness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calcium new pullback'!$M$5:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calcium new pullback'!$P$5:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>215.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>168.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>156.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BE7B-4D7A-873B-C0617741827B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="350780495"/>
+        <c:axId val="350777135"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="350780495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350777135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="350777135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350780495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C885A8-55A2-C00C-D3D7-87403B21ACD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01970F11-B583-83FF-DC1F-F5EC88679E2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3FF3E00-7442-35D0-D621-0602991F475C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C788D448-7CE9-7652-24ED-F21354EFE5E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6662CD2-FAE9-7D28-FA25-1AB29CF1AA18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -877,7 +6166,7 @@
   <dimension ref="C2:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1155,8 +6444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB1F30A-FD08-40D0-B33D-11652E050167}">
   <dimension ref="C2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1481,4 +6770,604 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B790E4-6865-4C2E-8B3C-EC752950753E}">
+  <dimension ref="C3:O17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>27.09</v>
+      </c>
+      <c r="J5">
+        <v>13.03</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>73.69</v>
+      </c>
+      <c r="O5">
+        <v>35.590000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.875</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>19.54</v>
+      </c>
+      <c r="J6">
+        <v>7.16</v>
+      </c>
+      <c r="M6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>62.47</v>
+      </c>
+      <c r="O6">
+        <v>27.98</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="E7">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>34.28</v>
+      </c>
+      <c r="J7">
+        <v>2.77</v>
+      </c>
+      <c r="M7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>90.48</v>
+      </c>
+      <c r="O7">
+        <v>26.059000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>26.64</v>
+      </c>
+      <c r="J8">
+        <v>2.23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8">
+        <v>87.29</v>
+      </c>
+      <c r="O8">
+        <v>25.96</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>38.42</v>
+      </c>
+      <c r="J9">
+        <v>2.84</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9">
+        <v>105.46</v>
+      </c>
+      <c r="O9">
+        <v>30.17</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F6EC09-9BE8-4AA2-8475-0FA060065002}">
+  <dimension ref="C3:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0.751</v>
+      </c>
+      <c r="E5">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="F5">
+        <v>0.755</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>-10.5</v>
+      </c>
+      <c r="J5">
+        <v>-9.31</v>
+      </c>
+      <c r="K5">
+        <v>-96.88</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>67.989999999999995</v>
+      </c>
+      <c r="O5">
+        <v>15.57</v>
+      </c>
+      <c r="P5">
+        <v>215.88</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E6">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="F6">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>-6.07</v>
+      </c>
+      <c r="J6">
+        <v>-9.26</v>
+      </c>
+      <c r="K6">
+        <v>-48.63</v>
+      </c>
+      <c r="M6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>40.020000000000003</v>
+      </c>
+      <c r="O6">
+        <v>16.88</v>
+      </c>
+      <c r="P6">
+        <v>168.07</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.85</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="J7">
+        <v>-9.5299999999999994</v>
+      </c>
+      <c r="K7">
+        <v>-75.83</v>
+      </c>
+      <c r="M7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>62.12</v>
+      </c>
+      <c r="O7">
+        <v>14.94</v>
+      </c>
+      <c r="P7">
+        <v>171.84</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>0.91</v>
+      </c>
+      <c r="E8">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="F8">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="J8">
+        <v>-9.59</v>
+      </c>
+      <c r="K8">
+        <v>-79.03</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8">
+        <v>50.93</v>
+      </c>
+      <c r="O8">
+        <v>17.71</v>
+      </c>
+      <c r="P8">
+        <v>162.41</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="F9">
+        <v>0.871</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>-11.27</v>
+      </c>
+      <c r="K9">
+        <v>-72.400000000000006</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9">
+        <v>57.53</v>
+      </c>
+      <c r="O9">
+        <v>17.48</v>
+      </c>
+      <c r="P9">
+        <v>156.54</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/metrics_build/statistics/measurements_analysis.xlsx
+++ b/metrics_build/statistics/measurements_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\grodriguez\CardiacOCT\metrics_build\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F391EED-9F2D-4312-AE93-584115387197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0360B889-5702-4666-ABBC-BE1E18E412E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="5" xr2:uid="{5B6E0941-A250-4CCF-AC71-47FD64016735}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{5B6E0941-A250-4CCF-AC71-47FD64016735}"/>
   </bookViews>
   <sheets>
     <sheet name="Lipid measures feb test set" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="22">
   <si>
     <t>FCT</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>Model 5</t>
+  </si>
+  <si>
+    <t>Model 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 7 </t>
+  </si>
+  <si>
+    <t>Model 7</t>
   </si>
 </sst>
 </file>
@@ -264,9 +273,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Lipid new pullback'!$C$5:$C$9</c:f>
+              <c:f>'Lipid new pullback'!$C$5:$C$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Model 1</c:v>
                 </c:pt>
@@ -281,16 +290,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Lipid new pullback'!$D$5:$D$9</c:f>
+              <c:f>'Lipid new pullback'!$D$5:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.78400000000000003</c:v>
                 </c:pt>
@@ -305,6 +320,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67900000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -312,7 +333,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2B20-48E6-A980-844D58410F36}"/>
+              <c16:uniqueId val="{00000000-1AD0-4355-94CA-BB70A7F4BD7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -344,9 +365,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Lipid new pullback'!$C$5:$C$9</c:f>
+              <c:f>'Lipid new pullback'!$C$5:$C$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Model 1</c:v>
                 </c:pt>
@@ -361,16 +382,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Lipid new pullback'!$E$5:$E$9</c:f>
+              <c:f>'Lipid new pullback'!$E$5:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.80500000000000005</c:v>
                 </c:pt>
@@ -385,6 +412,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.86699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89900000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -392,7 +425,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2B20-48E6-A980-844D58410F36}"/>
+              <c16:uniqueId val="{00000001-1AD0-4355-94CA-BB70A7F4BD7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -405,11 +438,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="7004223"/>
-        <c:axId val="6997503"/>
+        <c:axId val="719058480"/>
+        <c:axId val="719058960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="7004223"/>
+        <c:axId val="719058480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,7 +485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6997503"/>
+        <c:crossAx val="719058960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -460,7 +493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6997503"/>
+        <c:axId val="719058960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -511,7 +544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7004223"/>
+        <c:crossAx val="719058480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -556,6 +589,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -694,9 +734,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Lipid new pullback'!$H$5:$H$9</c:f>
+              <c:f>'Lipid new pullback'!$H$5:$H$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Model 1</c:v>
                 </c:pt>
@@ -711,16 +751,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Lipid new pullback'!$I$5:$I$9</c:f>
+              <c:f>'Lipid new pullback'!$I$5:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>27.09</c:v>
                 </c:pt>
@@ -735,6 +781,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>38.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -742,7 +794,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-191C-4038-AAA8-4E64116C9141}"/>
+              <c16:uniqueId val="{00000000-10FF-48E4-BAC4-1D5D9A363257}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -774,9 +826,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Lipid new pullback'!$H$5:$H$9</c:f>
+              <c:f>'Lipid new pullback'!$H$5:$H$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Model 1</c:v>
                 </c:pt>
@@ -791,16 +843,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Lipid new pullback'!$J$5:$J$9</c:f>
+              <c:f>'Lipid new pullback'!$J$5:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>13.03</c:v>
                 </c:pt>
@@ -815,6 +873,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,7 +886,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-191C-4038-AAA8-4E64116C9141}"/>
+              <c16:uniqueId val="{00000001-10FF-48E4-BAC4-1D5D9A363257}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -835,11 +899,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="223595919"/>
-        <c:axId val="223593039"/>
+        <c:axId val="778803568"/>
+        <c:axId val="778796848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223595919"/>
+        <c:axId val="778803568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223593039"/>
+        <c:crossAx val="778796848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -890,7 +954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223593039"/>
+        <c:axId val="778796848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,7 +1005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223595919"/>
+        <c:crossAx val="778803568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1131,9 +1195,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Lipid new pullback'!$M$5:$M$9</c:f>
+              <c:f>'Lipid new pullback'!$M$5:$M$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Model 1</c:v>
                 </c:pt>
@@ -1148,16 +1212,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Lipid new pullback'!$N$5:$N$9</c:f>
+              <c:f>'Lipid new pullback'!$N$5:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>73.69</c:v>
                 </c:pt>
@@ -1172,6 +1242,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>105.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,7 +1255,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E851-47CA-9549-BD925D21E8A6}"/>
+              <c16:uniqueId val="{00000000-5EEF-4822-9E1F-9C0922513EE6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1211,9 +1287,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Lipid new pullback'!$M$5:$M$9</c:f>
+              <c:f>'Lipid new pullback'!$M$5:$M$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Model 1</c:v>
                 </c:pt>
@@ -1228,16 +1304,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Lipid new pullback'!$O$5:$O$9</c:f>
+              <c:f>'Lipid new pullback'!$O$5:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>35.590000000000003</c:v>
                 </c:pt>
@@ -1252,6 +1334,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>30.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,7 +1347,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E851-47CA-9549-BD925D21E8A6}"/>
+              <c16:uniqueId val="{00000001-5EEF-4822-9E1F-9C0922513EE6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1272,11 +1360,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="314263103"/>
-        <c:axId val="314263583"/>
+        <c:axId val="783037968"/>
+        <c:axId val="783043248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="314263103"/>
+        <c:axId val="783037968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314263583"/>
+        <c:crossAx val="783043248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1327,7 +1415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314263583"/>
+        <c:axId val="783043248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1466,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314263103"/>
+        <c:crossAx val="783037968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1423,6 +1511,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1493,7 +1588,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>ICC</a:t>
+              <a:t>Mean diff</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1538,7 +1633,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calcium new pullback'!$D$4</c:f>
+              <c:f>'Calcium new pullback'!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1561,9 +1656,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Calcium new pullback'!$C$5:$C$9</c:f>
+              <c:f>'Calcium new pullback'!$H$5:$H$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Model 1</c:v>
                 </c:pt>
@@ -1578,30 +1673,42 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calcium new pullback'!$D$5:$D$9</c:f>
+              <c:f>'Calcium new pullback'!$I$5:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.751</c:v>
+                  <c:v>-10.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92600000000000005</c:v>
+                  <c:v>-6.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86899999999999999</c:v>
+                  <c:v>10.029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91</c:v>
+                  <c:v>8.2799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88700000000000001</c:v>
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1609,7 +1716,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A7C6-490F-8FE2-C076E66D818C}"/>
+              <c16:uniqueId val="{00000000-18F6-4CC1-BA80-A07441F948B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1618,7 +1725,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calcium new pullback'!$E$4</c:f>
+              <c:f>'Calcium new pullback'!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1641,9 +1748,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Calcium new pullback'!$C$5:$C$9</c:f>
+              <c:f>'Calcium new pullback'!$H$5:$H$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Model 1</c:v>
                 </c:pt>
@@ -1658,30 +1765,42 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calcium new pullback'!$E$5:$E$9</c:f>
+              <c:f>'Calcium new pullback'!$J$5:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.85399999999999998</c:v>
+                  <c:v>-9.31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83799999999999997</c:v>
+                  <c:v>-9.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86299999999999999</c:v>
+                  <c:v>-9.5299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81200000000000006</c:v>
+                  <c:v>-9.59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80900000000000005</c:v>
+                  <c:v>-11.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1689,7 +1808,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A7C6-490F-8FE2-C076E66D818C}"/>
+              <c16:uniqueId val="{00000001-18F6-4CC1-BA80-A07441F948B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1698,7 +1817,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calcium new pullback'!$F$4</c:f>
+              <c:f>'Calcium new pullback'!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1721,9 +1840,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Calcium new pullback'!$C$5:$C$9</c:f>
+              <c:f>'Calcium new pullback'!$H$5:$H$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Model 1</c:v>
                 </c:pt>
@@ -1738,30 +1857,42 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calcium new pullback'!$F$5:$F$9</c:f>
+              <c:f>'Calcium new pullback'!$K$5:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.755</c:v>
+                  <c:v>-96.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86199999999999999</c:v>
+                  <c:v>-48.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85</c:v>
+                  <c:v>-75.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86199999999999999</c:v>
+                  <c:v>-79.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.871</c:v>
+                  <c:v>-72.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-41.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-56.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1769,7 +1900,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A7C6-490F-8FE2-C076E66D818C}"/>
+              <c16:uniqueId val="{00000002-18F6-4CC1-BA80-A07441F948B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1782,11 +1913,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="314249343"/>
-        <c:axId val="314246943"/>
+        <c:axId val="778798288"/>
+        <c:axId val="778798768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="314249343"/>
+        <c:axId val="778798288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,7 +1960,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314246943"/>
+        <c:crossAx val="778798768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1837,7 +1968,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314246943"/>
+        <c:axId val="778798768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,7 +2019,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314249343"/>
+        <c:crossAx val="778798288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1933,6 +2064,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2071,9 +2209,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Calcium new pullback'!$M$5:$M$9</c:f>
+              <c:f>'Calcium new pullback'!$M$5:$M$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Model 1</c:v>
                 </c:pt>
@@ -2088,16 +2226,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calcium new pullback'!$N$5:$N$9</c:f>
+              <c:f>'Calcium new pullback'!$N$5:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>67.989999999999995</c:v>
                 </c:pt>
@@ -2112,6 +2256,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>57.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2119,7 +2269,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BE7B-4D7A-873B-C0617741827B}"/>
+              <c16:uniqueId val="{00000000-242C-47A2-9878-F67D3CE3C3BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2151,9 +2301,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Calcium new pullback'!$M$5:$M$9</c:f>
+              <c:f>'Calcium new pullback'!$M$5:$M$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Model 1</c:v>
                 </c:pt>
@@ -2168,16 +2318,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calcium new pullback'!$O$5:$O$9</c:f>
+              <c:f>'Calcium new pullback'!$O$5:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>15.57</c:v>
                 </c:pt>
@@ -2192,6 +2348,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2199,7 +2361,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BE7B-4D7A-873B-C0617741827B}"/>
+              <c16:uniqueId val="{00000001-242C-47A2-9878-F67D3CE3C3BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2231,9 +2393,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Calcium new pullback'!$M$5:$M$9</c:f>
+              <c:f>'Calcium new pullback'!$M$5:$M$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Model 1</c:v>
                 </c:pt>
@@ -2248,16 +2410,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calcium new pullback'!$P$5:$P$9</c:f>
+              <c:f>'Calcium new pullback'!$P$5:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>215.88</c:v>
                 </c:pt>
@@ -2272,6 +2440,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>156.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>179.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2279,7 +2453,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BE7B-4D7A-873B-C0617741827B}"/>
+              <c16:uniqueId val="{00000002-242C-47A2-9878-F67D3CE3C3BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2292,11 +2466,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="350780495"/>
-        <c:axId val="350777135"/>
+        <c:axId val="725790784"/>
+        <c:axId val="725794624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="350780495"/>
+        <c:axId val="725790784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,7 +2513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350777135"/>
+        <c:crossAx val="725794624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2347,7 +2521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="350777135"/>
+        <c:axId val="725794624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2398,7 +2572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350780495"/>
+        <c:crossAx val="725790784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2443,6 +2617,559 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>ICC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calcium new pullback'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Depth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calcium new pullback'!$C$5:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 7 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calcium new pullback'!$D$5:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A09E-4D36-A1B5-48BA5749AF99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calcium new pullback'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calcium new pullback'!$C$5:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 7 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calcium new pullback'!$E$5:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A09E-4D36-A1B5-48BA5749AF99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calcium new pullback'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thickness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calcium new pullback'!$C$5:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 7 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calcium new pullback'!$F$5:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.878</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A09E-4D36-A1B5-48BA5749AF99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="703855072"/>
+        <c:axId val="703854112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="703855072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703854112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="703854112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703855072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2678,6 +3405,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5258,27 +6025,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>386715</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>84772</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C885A8-55A2-C00C-D3D7-87403B21ACD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A20F269E-B35B-B710-174D-25410DA76F3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5298,23 +6581,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>154305</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>459105</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>113347</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01970F11-B583-83FF-DC1F-F5EC88679E2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84668342-22C4-6170-7DF9-1889A3B7DEF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5334,23 +6617,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>55245</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>58102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>360045</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>82867</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3FF3E00-7442-35D0-D621-0602991F475C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D0EEE32-E7F1-948E-89D4-B3059D6514BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5375,23 +6658,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>453390</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>136207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>607695</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C788D448-7CE9-7652-24ED-F21354EFE5E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EB86C39-FF32-71A5-A68C-05AA9AC69454}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5411,23 +6694,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>103822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6662CD2-FAE9-7D28-FA25-1AB29CF1AA18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00500F09-2149-B26B-9CCE-5E17A41A1FBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5440,6 +6723,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>389572</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>84772</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63817</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B077E8-58DB-7E85-EE9C-EABB9551D779}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6166,7 +7485,7 @@
   <dimension ref="C2:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:O17"/>
+      <selection activeCell="C12" sqref="C12:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6774,10 +8093,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B790E4-6865-4C2E-8B3C-EC752950753E}">
-  <dimension ref="C3:O17"/>
+  <dimension ref="C3:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6958,85 +8277,171 @@
         <v>30.17</v>
       </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.877</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10">
+        <v>32.880000000000003</v>
+      </c>
+      <c r="J10">
+        <v>-2.11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10">
+        <v>120.9</v>
+      </c>
+      <c r="O10">
+        <v>29.13</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>87</v>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="E11">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11">
+        <v>33.96</v>
+      </c>
+      <c r="J11">
+        <v>-2.42</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11">
+        <v>95.8</v>
+      </c>
+      <c r="O11">
+        <v>26.04</v>
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>87</v>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
         <v>6</v>
       </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
       <c r="F15">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
       <c r="F17">
         <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -7047,10 +8452,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F6EC09-9BE8-4AA2-8475-0FA060065002}">
-  <dimension ref="C3:P17"/>
+  <dimension ref="C3:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7285,85 +8690,189 @@
         <v>156.54</v>
       </c>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="F10">
+        <v>0.878</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10">
+        <v>4.59</v>
+      </c>
+      <c r="J10">
+        <v>-7.11</v>
+      </c>
+      <c r="K10">
+        <v>-41.22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10">
+        <v>56.41</v>
+      </c>
+      <c r="O10">
+        <v>18.09</v>
+      </c>
+      <c r="P10">
+        <v>160.03</v>
       </c>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>26</v>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>0.93</v>
+      </c>
+      <c r="E11">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="F11">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11">
+        <v>3.82</v>
+      </c>
+      <c r="J11">
+        <v>-7.86</v>
+      </c>
+      <c r="K11">
+        <v>-56.54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11">
+        <v>43.59</v>
+      </c>
+      <c r="O11">
+        <v>16.91</v>
+      </c>
+      <c r="P11">
+        <v>179.65</v>
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>27</v>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
         <v>6</v>
       </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
       <c r="F15">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
         <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
